--- a/issues173/ig/all-profiles.xlsx
+++ b/issues173/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T07:31:20+00:00</t>
+    <t>2024-04-12T10:19:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues173/ig/all-profiles.xlsx
+++ b/issues173/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T10:19:32+00:00</t>
+    <t>2024-04-15T07:05:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues173/ig/all-profiles.xlsx
+++ b/issues173/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T07:05:00+00:00</t>
+    <t>2024-04-15T11:51:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/issues173/ig/all-profiles.xlsx
+++ b/issues173/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T11:51:44+00:00</t>
+    <t>2024-04-15T14:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
